--- a/Pick Place for MiniESP32_Panel_CPL.xlsx
+++ b/Pick Place for MiniESP32_Panel_CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DATEN\Alexander\Projekte\_Projektordner\MiniESP32\Altium\Outputs\Fertigung\V1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA69E5D-CD02-4A34-9A63-0530DD943EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2F8C4-8BC9-4E24-B5D7-A1D0AB947809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{DDC982FF-94B5-4844-B014-1947C088C29E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DDC982FF-94B5-4844-B014-1947C088C29E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="199">
   <si>
     <t>Designator</t>
   </si>
@@ -134,9 +134,6 @@
     <t>8.9540</t>
   </si>
   <si>
-    <t>1.7780</t>
-  </si>
-  <si>
     <t>12.9540</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>49.2780</t>
   </si>
   <si>
-    <t>33.7780</t>
-  </si>
-  <si>
     <t>34.2860</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>R25_i1</t>
   </si>
   <si>
-    <t>R24_i1</t>
-  </si>
-  <si>
     <t>R18_i1</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>R25_i2</t>
   </si>
   <si>
-    <t>R24_i2</t>
-  </si>
-  <si>
     <t>R18_i2</t>
   </si>
   <si>
@@ -515,9 +503,6 @@
     <t>R25_i3</t>
   </si>
   <si>
-    <t>R24_i3</t>
-  </si>
-  <si>
     <t>R18_i3</t>
   </si>
   <si>
@@ -597,9 +582,6 @@
   </si>
   <si>
     <t>R25_i4</t>
-  </si>
-  <si>
-    <t>R24_i4</t>
   </si>
   <si>
     <t>R18_i4</t>
@@ -1002,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326BD3-2EEE-4807-94A7-D047B700C715}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1029,7 +1011,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1046,7 +1028,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1063,7 +1045,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1080,7 +1062,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1097,7 +1079,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1114,7 +1096,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1131,7 +1113,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1148,7 +1130,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1165,7 +1147,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1182,7 +1164,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1199,7 +1181,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1216,7 +1198,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1233,16 +1215,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -1250,13 +1232,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1267,16 +1249,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1284,16 +1266,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1301,16 +1283,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18">
-        <v>270</v>
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -1318,30 +1300,30 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1352,16 +1334,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1369,7 +1351,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -1386,16 +1368,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1403,16 +1385,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1420,16 +1402,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1437,16 +1419,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1454,16 +1436,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>270</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1471,16 +1453,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28">
-        <v>270</v>
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1488,16 +1470,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1505,16 +1487,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1522,16 +1504,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
+      <c r="D31">
+        <v>180</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1539,16 +1521,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
       <c r="D32">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1556,16 +1538,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>53</v>
       </c>
-      <c r="D33">
-        <v>270</v>
+      <c r="D33" t="s">
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1573,16 +1555,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
+      <c r="D34">
+        <v>270</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1590,30 +1572,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="D35">
-        <v>270</v>
+      <c r="D35" t="s">
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1624,10 +1606,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -1636,21 +1618,21 @@
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1658,16 +1640,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1675,16 +1657,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1692,33 +1674,33 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
@@ -1726,16 +1708,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
+      <c r="D43">
+        <v>90</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
@@ -1743,16 +1725,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <v>270</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -1760,16 +1742,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
@@ -1777,50 +1759,50 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
       </c>
-      <c r="D46">
-        <v>270</v>
+      <c r="D46" t="s">
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -1828,16 +1810,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -1845,16 +1827,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -1862,16 +1844,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -1879,13 +1861,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -1896,16 +1878,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -1913,16 +1895,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
-      <c r="D54" t="s">
-        <v>6</v>
+      <c r="D54">
+        <v>270</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -1930,16 +1912,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -1947,16 +1929,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56">
-        <v>270</v>
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -1964,16 +1946,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -1981,16 +1963,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>180</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -1998,16 +1980,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>270</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2015,16 +1997,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60">
-        <v>180</v>
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2032,13 +2014,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>270</v>
@@ -2049,81 +2031,81 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63">
-        <v>270</v>
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -2134,13 +2116,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -2151,50 +2133,50 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="D70">
+        <v>90</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
@@ -2202,16 +2184,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="D71">
+        <v>270</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -2219,16 +2201,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -2236,67 +2218,67 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74">
-        <v>270</v>
+        <v>29</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2304,16 +2286,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2321,16 +2303,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -2338,16 +2320,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -2355,16 +2337,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -2372,16 +2354,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="D81">
+        <v>270</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -2389,16 +2371,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -2406,16 +2388,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -2423,16 +2405,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84">
-        <v>270</v>
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -2440,16 +2422,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="D85">
+        <v>180</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -2457,16 +2439,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D86">
+        <v>270</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -2474,16 +2456,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -2491,16 +2473,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D88">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -2508,50 +2490,50 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89">
-        <v>270</v>
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91">
-        <v>270</v>
+        <v>56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -2559,50 +2541,50 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -2610,67 +2592,67 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B97" t="s">
         <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D98">
+        <v>270</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
@@ -2678,16 +2660,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
@@ -2695,84 +2677,84 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
         <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
-      </c>
-      <c r="D101">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102">
-        <v>270</v>
+        <v>53</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -2780,13 +2762,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -2797,16 +2779,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -2814,13 +2796,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
         <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -2831,16 +2813,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
         <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D108">
+        <v>270</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
@@ -2848,86 +2830,18 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>201</v>
-      </c>
-      <c r="B112" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112">
-        <v>270</v>
-      </c>
-      <c r="E112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" t="s">
-        <v>90</v>
-      </c>
-      <c r="C113" t="s">
-        <v>61</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" t="s">
         <v>4</v>
       </c>
     </row>
